--- a/Team-Data/2014-15/4-2-2014-15.xlsx
+++ b/Team-Data/2014-15/4-2-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>5</v>
       </c>
       <c r="AD2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE2" t="n">
         <v>2</v>
@@ -756,7 +823,7 @@
         <v>2</v>
       </c>
       <c r="AH2" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI2" t="n">
         <v>12</v>
@@ -819,7 +886,7 @@
         <v>11</v>
       </c>
       <c r="BC2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-2-2014-15</t>
+          <t>2015-04-02</t>
         </is>
       </c>
     </row>
@@ -926,16 +993,16 @@
         <v>-0.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
         <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH3" t="n">
         <v>12</v>
@@ -974,7 +1041,7 @@
         <v>11</v>
       </c>
       <c r="AT3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU3" t="n">
         <v>4</v>
@@ -989,7 +1056,7 @@
         <v>30</v>
       </c>
       <c r="AY3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ3" t="n">
         <v>22</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-2-2014-15</t>
+          <t>2015-04-02</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1187,7 @@
         <v>17</v>
       </c>
       <c r="AH4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI4" t="n">
         <v>19</v>
@@ -1159,7 +1226,7 @@
         <v>22</v>
       </c>
       <c r="AU4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV4" t="n">
         <v>12</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-2-2014-15</t>
+          <t>2015-04-02</t>
         </is>
       </c>
     </row>
@@ -1323,7 +1390,7 @@
         <v>30</v>
       </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="n">
         <v>14</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-2-2014-15</t>
+          <t>2015-04-02</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>2.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE6" t="n">
         <v>10</v>
@@ -1535,10 +1602,10 @@
         <v>5</v>
       </c>
       <c r="AY6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA6" t="n">
         <v>5</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-2-2014-15</t>
+          <t>2015-04-02</t>
         </is>
       </c>
     </row>
@@ -1576,25 +1643,25 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" t="n">
         <v>27</v>
       </c>
       <c r="G7" t="n">
-        <v>0.645</v>
+        <v>0.64</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
       </c>
       <c r="I7" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J7" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="K7" t="n">
         <v>0.459</v>
@@ -1603,16 +1670,16 @@
         <v>9.9</v>
       </c>
       <c r="M7" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="N7" t="n">
-        <v>0.365</v>
+        <v>0.364</v>
       </c>
       <c r="O7" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="P7" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="Q7" t="n">
         <v>0.757</v>
@@ -1621,7 +1688,7 @@
         <v>11.1</v>
       </c>
       <c r="S7" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T7" t="n">
         <v>42.9</v>
@@ -1633,13 +1700,13 @@
         <v>14</v>
       </c>
       <c r="W7" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X7" t="n">
         <v>4.1</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z7" t="n">
         <v>18.4</v>
@@ -1648,16 +1715,16 @@
         <v>20.7</v>
       </c>
       <c r="AB7" t="n">
-        <v>103.5</v>
+        <v>103.3</v>
       </c>
       <c r="AC7" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF7" t="n">
         <v>8</v>
@@ -1666,7 +1733,7 @@
         <v>8</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
         <v>14</v>
@@ -1684,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="AN7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AO7" t="n">
         <v>6</v>
@@ -1720,16 +1787,16 @@
         <v>12</v>
       </c>
       <c r="AZ7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-2-2014-15</t>
+          <t>2015-04-02</t>
         </is>
       </c>
     </row>
@@ -1776,46 +1843,46 @@
         <v>39.5</v>
       </c>
       <c r="J8" t="n">
-        <v>85.7</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L8" t="n">
         <v>9</v>
       </c>
       <c r="M8" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="N8" t="n">
-        <v>0.351</v>
+        <v>0.352</v>
       </c>
       <c r="O8" t="n">
         <v>16.5</v>
       </c>
       <c r="P8" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.751</v>
+        <v>0.753</v>
       </c>
       <c r="R8" t="n">
         <v>10.4</v>
       </c>
       <c r="S8" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="T8" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U8" t="n">
         <v>22.5</v>
       </c>
       <c r="V8" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="W8" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X8" t="n">
         <v>4.5</v>
@@ -1824,19 +1891,19 @@
         <v>3.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AA8" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AB8" t="n">
         <v>104.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1872,7 +1939,7 @@
         <v>21</v>
       </c>
       <c r="AP8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ8" t="n">
         <v>17</v>
@@ -1881,7 +1948,7 @@
         <v>19</v>
       </c>
       <c r="AS8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT8" t="n">
         <v>24</v>
@@ -1896,7 +1963,7 @@
         <v>8</v>
       </c>
       <c r="AX8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY8" t="n">
         <v>4</v>
@@ -1911,7 +1978,7 @@
         <v>3</v>
       </c>
       <c r="BC8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-2-2014-15</t>
+          <t>2015-04-02</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE9" t="n">
         <v>24</v>
@@ -2036,7 +2103,7 @@
         <v>17</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK9" t="n">
         <v>26</v>
@@ -2057,13 +2124,13 @@
         <v>8</v>
       </c>
       <c r="AQ9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR9" t="n">
         <v>3</v>
       </c>
       <c r="AS9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT9" t="n">
         <v>7</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-2-2014-15</t>
+          <t>2015-04-02</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-1.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-2-2014-15</t>
+          <t>2015-04-02</t>
         </is>
       </c>
     </row>
@@ -2304,25 +2371,25 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E11" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F11" t="n">
         <v>13</v>
       </c>
       <c r="G11" t="n">
-        <v>0.827</v>
+        <v>0.824</v>
       </c>
       <c r="H11" t="n">
         <v>48.1</v>
       </c>
       <c r="I11" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="J11" t="n">
-        <v>86.8</v>
+        <v>86.7</v>
       </c>
       <c r="K11" t="n">
         <v>0.478</v>
@@ -2337,22 +2404,22 @@
         <v>0.397</v>
       </c>
       <c r="O11" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="P11" t="n">
         <v>20.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.772</v>
+        <v>0.773</v>
       </c>
       <c r="R11" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S11" t="n">
         <v>34.3</v>
       </c>
       <c r="T11" t="n">
-        <v>44.7</v>
+        <v>44.6</v>
       </c>
       <c r="U11" t="n">
         <v>27.4</v>
@@ -2373,16 +2440,16 @@
         <v>19.7</v>
       </c>
       <c r="AA11" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB11" t="n">
-        <v>109.7</v>
+        <v>109.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2400,7 +2467,7 @@
         <v>1</v>
       </c>
       <c r="AJ11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK11" t="n">
         <v>1</v>
@@ -2415,16 +2482,16 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP11" t="n">
         <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS11" t="n">
         <v>4</v>
@@ -2442,7 +2509,7 @@
         <v>4</v>
       </c>
       <c r="AX11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY11" t="n">
         <v>2</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-2-2014-15</t>
+          <t>2015-04-02</t>
         </is>
       </c>
     </row>
@@ -2516,40 +2583,40 @@
         <v>33.2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.347</v>
+        <v>0.348</v>
       </c>
       <c r="O12" t="n">
         <v>17.9</v>
       </c>
       <c r="P12" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.722</v>
+        <v>0.721</v>
       </c>
       <c r="R12" t="n">
         <v>11.9</v>
       </c>
       <c r="S12" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T12" t="n">
-        <v>43.7</v>
+        <v>43.6</v>
       </c>
       <c r="U12" t="n">
         <v>22.3</v>
       </c>
       <c r="V12" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="W12" t="n">
         <v>9.5</v>
       </c>
       <c r="X12" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z12" t="n">
         <v>22.1</v>
@@ -2561,10 +2628,10 @@
         <v>103.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE12" t="n">
         <v>3</v>
@@ -2594,22 +2661,22 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO12" t="n">
         <v>7</v>
       </c>
       <c r="AP12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR12" t="n">
         <v>5</v>
       </c>
       <c r="AS12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT12" t="n">
         <v>15</v>
@@ -2627,19 +2694,19 @@
         <v>11</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
         <v>27</v>
       </c>
       <c r="BA12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BB12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-2-2014-15</t>
+          <t>2015-04-02</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-0.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE13" t="n">
         <v>21</v>
@@ -2776,7 +2843,7 @@
         <v>18</v>
       </c>
       <c r="AN13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO13" t="n">
         <v>17</v>
@@ -2785,7 +2852,7 @@
         <v>18</v>
       </c>
       <c r="AQ13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR13" t="n">
         <v>23</v>
@@ -2812,7 +2879,7 @@
         <v>15</v>
       </c>
       <c r="AZ13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA13" t="n">
         <v>4</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-2-2014-15</t>
+          <t>2015-04-02</t>
         </is>
       </c>
     </row>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-2-2014-15</t>
+          <t>2015-04-02</t>
         </is>
       </c>
     </row>
@@ -3032,61 +3099,61 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E15" t="n">
         <v>20</v>
       </c>
       <c r="F15" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G15" t="n">
-        <v>0.274</v>
+        <v>0.27</v>
       </c>
       <c r="H15" t="n">
         <v>48.7</v>
       </c>
       <c r="I15" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J15" t="n">
         <v>85.90000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L15" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M15" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="N15" t="n">
         <v>0.344</v>
       </c>
       <c r="O15" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="P15" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.744</v>
+        <v>0.745</v>
       </c>
       <c r="R15" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S15" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="T15" t="n">
-        <v>44.1</v>
+        <v>44</v>
       </c>
       <c r="U15" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V15" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="W15" t="n">
         <v>7.3</v>
@@ -3098,19 +3165,19 @@
         <v>4.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>99</v>
+        <v>98.8</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.8</v>
+        <v>-6</v>
       </c>
       <c r="AD15" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3140,16 +3207,16 @@
         <v>24</v>
       </c>
       <c r="AN15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR15" t="n">
         <v>9</v>
@@ -3158,7 +3225,7 @@
         <v>14</v>
       </c>
       <c r="AT15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU15" t="n">
         <v>20</v>
@@ -3176,10 +3243,10 @@
         <v>16</v>
       </c>
       <c r="AZ15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB15" t="n">
         <v>17</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-2-2014-15</t>
+          <t>2015-04-02</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>3.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3310,7 +3377,7 @@
         <v>13</v>
       </c>
       <c r="AJ16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK16" t="n">
         <v>9</v>
@@ -3349,13 +3416,13 @@
         <v>7</v>
       </c>
       <c r="AW16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX16" t="n">
         <v>24</v>
       </c>
       <c r="AY16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-2-2014-15</t>
+          <t>2015-04-02</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E17" t="n">
         <v>34</v>
       </c>
       <c r="F17" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G17" t="n">
-        <v>0.453</v>
+        <v>0.459</v>
       </c>
       <c r="H17" t="n">
         <v>48.1</v>
@@ -3432,13 +3499,13 @@
         <v>17.6</v>
       </c>
       <c r="P17" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.745</v>
+        <v>0.744</v>
       </c>
       <c r="R17" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="S17" t="n">
         <v>29.8</v>
@@ -3447,7 +3514,7 @@
         <v>38.8</v>
       </c>
       <c r="U17" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V17" t="n">
         <v>15</v>
@@ -3456,7 +3523,7 @@
         <v>8.1</v>
       </c>
       <c r="X17" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y17" t="n">
         <v>4.4</v>
@@ -3468,22 +3535,22 @@
         <v>20.8</v>
       </c>
       <c r="AB17" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>-2.5</v>
+        <v>-2.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
       </c>
       <c r="AF17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
         <v>26</v>
@@ -3504,7 +3571,7 @@
         <v>19</v>
       </c>
       <c r="AN17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO17" t="n">
         <v>11</v>
@@ -3513,7 +3580,7 @@
         <v>11</v>
       </c>
       <c r="AQ17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
@@ -3528,13 +3595,13 @@
         <v>29</v>
       </c>
       <c r="AV17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX17" t="n">
         <v>22</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>23</v>
       </c>
       <c r="AY17" t="n">
         <v>8</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-2-2014-15</t>
+          <t>2015-04-02</t>
         </is>
       </c>
     </row>
@@ -3656,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG18" t="n">
         <v>16</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-2-2014-15</t>
+          <t>2015-04-02</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="AD19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE19" t="n">
         <v>29</v>
@@ -3877,7 +3944,7 @@
         <v>2</v>
       </c>
       <c r="AQ19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR19" t="n">
         <v>6</v>
@@ -3904,7 +3971,7 @@
         <v>27</v>
       </c>
       <c r="AZ19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA19" t="n">
         <v>6</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-2-2014-15</t>
+          <t>2015-04-02</t>
         </is>
       </c>
     </row>
@@ -3942,28 +4009,28 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E20" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F20" t="n">
         <v>34</v>
       </c>
       <c r="G20" t="n">
-        <v>0.534</v>
+        <v>0.541</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="J20" t="n">
-        <v>82.40000000000001</v>
+        <v>82.7</v>
       </c>
       <c r="K20" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L20" t="n">
         <v>7.1</v>
@@ -3972,55 +4039,55 @@
         <v>19.2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.37</v>
+        <v>0.368</v>
       </c>
       <c r="O20" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P20" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.764</v>
+        <v>0.758</v>
       </c>
       <c r="R20" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="S20" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T20" t="n">
-        <v>43.3</v>
+        <v>43.6</v>
       </c>
       <c r="U20" t="n">
         <v>22.2</v>
       </c>
       <c r="V20" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="W20" t="n">
         <v>6.7</v>
       </c>
       <c r="X20" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z20" t="n">
         <v>18.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD20" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AE20" t="n">
         <v>14</v>
@@ -4035,10 +4102,10 @@
         <v>23</v>
       </c>
       <c r="AI20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK20" t="n">
         <v>7</v>
@@ -4056,10 +4123,10 @@
         <v>19</v>
       </c>
       <c r="AP20" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AQ20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR20" t="n">
         <v>10</v>
@@ -4068,7 +4135,7 @@
         <v>18</v>
       </c>
       <c r="AT20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU20" t="n">
         <v>10</v>
@@ -4080,7 +4147,7 @@
         <v>25</v>
       </c>
       <c r="AX20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY20" t="n">
         <v>28</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-2-2014-15</t>
+          <t>2015-04-02</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-9.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE21" t="n">
         <v>30</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-2-2014-15</t>
+          <t>2015-04-02</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>2.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE22" t="n">
         <v>12</v>
@@ -4438,7 +4505,7 @@
         <v>24</v>
       </c>
       <c r="AV22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW22" t="n">
         <v>22</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-2-2014-15</t>
+          <t>2015-04-02</t>
         </is>
       </c>
     </row>
@@ -4488,55 +4555,55 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E23" t="n">
         <v>22</v>
       </c>
       <c r="F23" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G23" t="n">
-        <v>0.297</v>
+        <v>0.293</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J23" t="n">
         <v>82.59999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L23" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M23" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N23" t="n">
         <v>0.349</v>
       </c>
       <c r="O23" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="P23" t="n">
         <v>19.2</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.731</v>
+        <v>0.732</v>
       </c>
       <c r="R23" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="S23" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T23" t="n">
-        <v>41.3</v>
+        <v>41.5</v>
       </c>
       <c r="U23" t="n">
         <v>20.8</v>
@@ -4548,10 +4615,10 @@
         <v>7.8</v>
       </c>
       <c r="X23" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="Z23" t="n">
         <v>21</v>
@@ -4560,13 +4627,13 @@
         <v>18</v>
       </c>
       <c r="AB23" t="n">
-        <v>96</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-6.1</v>
+        <v>-6.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
@@ -4584,10 +4651,10 @@
         <v>15</v>
       </c>
       <c r="AJ23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL23" t="n">
         <v>22</v>
@@ -4605,19 +4672,19 @@
         <v>29</v>
       </c>
       <c r="AQ23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR23" t="n">
         <v>27</v>
       </c>
       <c r="AS23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV23" t="n">
         <v>20</v>
@@ -4629,10 +4696,10 @@
         <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AZ23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-2-2014-15</t>
+          <t>2015-04-02</t>
         </is>
       </c>
     </row>
@@ -4811,7 +4878,7 @@
         <v>4</v>
       </c>
       <c r="AY24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ24" t="n">
         <v>24</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-2-2014-15</t>
+          <t>2015-04-02</t>
         </is>
       </c>
     </row>
@@ -4852,22 +4919,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E25" t="n">
         <v>38</v>
       </c>
       <c r="F25" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5</v>
+        <v>0.507</v>
       </c>
       <c r="H25" t="n">
         <v>48.5</v>
       </c>
       <c r="I25" t="n">
-        <v>39.2</v>
+        <v>39.1</v>
       </c>
       <c r="J25" t="n">
         <v>86.2</v>
@@ -4879,37 +4946,37 @@
         <v>8.699999999999999</v>
       </c>
       <c r="M25" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="N25" t="n">
-        <v>0.343</v>
+        <v>0.344</v>
       </c>
       <c r="O25" t="n">
         <v>16.5</v>
       </c>
       <c r="P25" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.762</v>
+        <v>0.763</v>
       </c>
       <c r="R25" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S25" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T25" t="n">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="U25" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V25" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W25" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X25" t="n">
         <v>4.7</v>
@@ -4921,16 +4988,16 @@
         <v>21.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>103.6</v>
+        <v>103.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
         <v>15</v>
@@ -4942,7 +5009,7 @@
         <v>15</v>
       </c>
       <c r="AH25" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI25" t="n">
         <v>4</v>
@@ -4960,7 +5027,7 @@
         <v>9</v>
       </c>
       <c r="AN25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO25" t="n">
         <v>20</v>
@@ -4969,16 +5036,16 @@
         <v>23</v>
       </c>
       <c r="AQ25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR25" t="n">
         <v>14</v>
       </c>
       <c r="AS25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU25" t="n">
         <v>27</v>
@@ -4987,7 +5054,7 @@
         <v>26</v>
       </c>
       <c r="AW25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX25" t="n">
         <v>12</v>
@@ -4999,7 +5066,7 @@
         <v>25</v>
       </c>
       <c r="BA25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB25" t="n">
         <v>6</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-2-2014-15</t>
+          <t>2015-04-02</t>
         </is>
       </c>
     </row>
@@ -5121,7 +5188,7 @@
         <v>5</v>
       </c>
       <c r="AG26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH26" t="n">
         <v>10</v>
@@ -5175,7 +5242,7 @@
         <v>16</v>
       </c>
       <c r="AY26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ26" t="n">
         <v>2</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-2-2014-15</t>
+          <t>2015-04-02</t>
         </is>
       </c>
     </row>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-2-2014-15</t>
+          <t>2015-04-02</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E28" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F28" t="n">
         <v>26</v>
       </c>
       <c r="G28" t="n">
-        <v>0.649</v>
+        <v>0.653</v>
       </c>
       <c r="H28" t="n">
         <v>48.7</v>
@@ -5416,34 +5483,34 @@
         <v>38.7</v>
       </c>
       <c r="J28" t="n">
-        <v>83.8</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="N28" t="n">
-        <v>0.365</v>
+        <v>0.367</v>
       </c>
       <c r="O28" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="P28" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="Q28" t="n">
         <v>0.778</v>
       </c>
       <c r="R28" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="T28" t="n">
         <v>43.7</v>
@@ -5452,7 +5519,7 @@
         <v>24.2</v>
       </c>
       <c r="V28" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W28" t="n">
         <v>8</v>
@@ -5473,13 +5540,13 @@
         <v>102.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="AE28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF28" t="n">
         <v>5</v>
@@ -5506,13 +5573,13 @@
         <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AO28" t="n">
         <v>14</v>
       </c>
       <c r="AP28" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AQ28" t="n">
         <v>5</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-2-2014-15</t>
+          <t>2015-04-02</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>3.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE29" t="n">
         <v>10</v>
@@ -5673,13 +5740,13 @@
         <v>14</v>
       </c>
       <c r="AI29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ29" t="n">
         <v>15</v>
       </c>
       <c r="AK29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL29" t="n">
         <v>8</v>
@@ -5694,7 +5761,7 @@
         <v>4</v>
       </c>
       <c r="AP29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ29" t="n">
         <v>2</v>
@@ -5706,7 +5773,7 @@
         <v>27</v>
       </c>
       <c r="AT29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU29" t="n">
         <v>21</v>
@@ -5718,7 +5785,7 @@
         <v>17</v>
       </c>
       <c r="AX29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY29" t="n">
         <v>19</v>
@@ -5733,7 +5800,7 @@
         <v>4</v>
       </c>
       <c r="BC29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-2-2014-15</t>
+          <t>2015-04-02</t>
         </is>
       </c>
     </row>
@@ -5840,16 +5907,16 @@
         <v>0.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
         <v>17</v>
       </c>
       <c r="AF30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH30" t="n">
         <v>30</v>
@@ -5870,16 +5937,16 @@
         <v>17</v>
       </c>
       <c r="AN30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO30" t="n">
         <v>15</v>
       </c>
       <c r="AP30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR30" t="n">
         <v>4</v>
@@ -5900,16 +5967,16 @@
         <v>18</v>
       </c>
       <c r="AX30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ30" t="n">
         <v>11</v>
       </c>
       <c r="BA30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB30" t="n">
         <v>27</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-2-2014-15</t>
+          <t>2015-04-02</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE31" t="n">
         <v>12</v>
@@ -6055,7 +6122,7 @@
         <v>9</v>
       </c>
       <c r="AO31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP31" t="n">
         <v>21</v>
@@ -6076,7 +6143,7 @@
         <v>6</v>
       </c>
       <c r="AV31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW31" t="n">
         <v>20</v>
@@ -6088,7 +6155,7 @@
         <v>7</v>
       </c>
       <c r="AZ31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA31" t="n">
         <v>21</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-2-2014-15</t>
+          <t>2015-04-02</t>
         </is>
       </c>
     </row>
